--- a/04.Doc/00.分析/骨干管理系统_路人甲_Story跟踪表.xlsx
+++ b/04.Doc/00.分析/骨干管理系统_路人甲_Story跟踪表.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="菜单项" sheetId="2" r:id="rId1"/>
+    <sheet name="Story细节" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>Story编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -158,13 +159,297 @@
   </si>
   <si>
     <t>S_022</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接IPSA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员学分信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训培养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨干查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力模型查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力与绩效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨干维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入骨干池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨干稳定度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员信息导入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工额外信息导入如家庭情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训信息导入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目群管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养计划维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息列表展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转后的详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、5个页签模块分别展示
+2、展示信息只支持修改，不支持增删
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入导出待确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、展示表格
+2、支持根据权限增、删、改、查、导入、导出
+3、支持跳转到个人详细信息
+4、支持排序过滤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息列表字段，展示字段待商榷</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、展示表格
+2、支持根据权限增、删、改、查、导入、导出
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+信息列表字段，展示字段待商榷</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员出入项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +486,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +518,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,11 +590,210 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -570,10 +1093,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>17</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>19</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>22</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G25:G1048576 G7 G1:G2 G5 G18:G23">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G10 G12">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G14">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
